--- a/sample_data/vox_samples_rand.xlsx
+++ b/sample_data/vox_samples_rand.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\code\python\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF69D42-C9EC-4927-B46B-063DAC879322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFCC531-8BFA-4E1B-AB9A-C818D7EF15C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
   <si>
     <t>x</t>
   </si>
@@ -68,13 +68,16 @@
     <t>high</t>
   </si>
   <si>
-    <t>flag</t>
-  </si>
-  <si>
     <t>row</t>
   </si>
   <si>
     <t>length</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
 </sst>
 </file>
@@ -144,12 +147,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -456,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -493,37 +499,37 @@
       <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>3</v>
+        <v>956</v>
       </c>
       <c r="B2">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="C2">
-        <v>548</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -534,433 +540,433 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>100</v>
+        <v>1313</v>
       </c>
       <c r="B3">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="C3">
-        <v>611</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>3.19</v>
+        <v>23</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>112</v>
+        <v>588</v>
       </c>
       <c r="B4">
-        <v>911</v>
+        <v>1144</v>
       </c>
       <c r="C4">
-        <v>860</v>
+        <v>683</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>10.203200000000001</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>172</v>
+        <v>937</v>
       </c>
       <c r="B5">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C5">
-        <v>303</v>
+        <v>473</v>
       </c>
       <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>48</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>18</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>42</v>
-      </c>
-      <c r="H5">
-        <v>46</v>
-      </c>
-      <c r="I5">
-        <v>15.1532</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
       <c r="K5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B6">
-        <v>656</v>
+        <v>869</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H6">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>18.499199999999998</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>288</v>
+        <v>701</v>
       </c>
       <c r="B7">
-        <v>627</v>
+        <v>996</v>
       </c>
       <c r="C7">
-        <v>627</v>
+        <v>466</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>18.057600000000001</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>305</v>
+        <v>439</v>
       </c>
       <c r="B8">
-        <v>992</v>
+        <v>1079</v>
       </c>
       <c r="C8">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>30.256</v>
+        <v>44</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>360</v>
+        <v>1130</v>
       </c>
       <c r="B9">
-        <v>163</v>
+        <v>1018</v>
       </c>
       <c r="C9">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>5.8680000000000003</v>
+        <v>49</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>383</v>
+        <v>597</v>
       </c>
       <c r="B10">
-        <v>515</v>
+        <v>159</v>
       </c>
       <c r="C10">
-        <v>126</v>
+        <v>346</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H10">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>19.724499999999999</v>
+        <v>31</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>387</v>
+        <v>1462</v>
       </c>
       <c r="B11">
-        <v>161</v>
+        <v>350</v>
       </c>
       <c r="C11">
-        <v>616</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H11">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>6.2306999999999997</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>494</v>
+        <v>1121</v>
       </c>
       <c r="B12">
-        <v>652</v>
+        <v>906</v>
       </c>
       <c r="C12">
-        <v>93</v>
+        <v>373</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H12">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>32.208799999999997</v>
+        <v>19</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>503</v>
+        <v>410</v>
       </c>
       <c r="B13">
-        <v>647</v>
+        <v>205</v>
       </c>
       <c r="C13">
-        <v>448</v>
+        <v>56</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>32.5441</v>
+        <v>99</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>650</v>
+        <v>844</v>
       </c>
       <c r="B14">
-        <v>731</v>
+        <v>561</v>
       </c>
       <c r="C14">
-        <v>724</v>
+        <v>595</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H14">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>47.515000000000001</v>
+        <v>28</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K14">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>679</v>
+        <v>125</v>
       </c>
       <c r="B15">
-        <v>346</v>
+        <v>664</v>
       </c>
       <c r="C15">
-        <v>818</v>
+        <v>146</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -969,68 +975,68 @@
         <v>8</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>23.493400000000001</v>
+        <v>92</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K15">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>679</v>
+        <v>409</v>
       </c>
       <c r="B16">
-        <v>667</v>
+        <v>78</v>
       </c>
       <c r="C16">
-        <v>937</v>
+        <v>202</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H16">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>45.289299999999997</v>
+        <v>74</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K16">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>683</v>
+        <v>1341</v>
       </c>
       <c r="B17">
-        <v>801</v>
+        <v>654</v>
       </c>
       <c r="C17">
-        <v>891</v>
+        <v>274</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -1039,36 +1045,36 @@
         <v>8</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>46</v>
       </c>
       <c r="H17">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>54.708300000000001</v>
+        <v>97</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K17">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>756</v>
+        <v>906</v>
       </c>
       <c r="B18">
-        <v>786</v>
+        <v>686</v>
       </c>
       <c r="C18">
-        <v>49</v>
+        <v>304</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1077,264 +1083,1174 @@
         <v>5</v>
       </c>
       <c r="G18">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>59.421599999999998</v>
+        <v>74</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K18">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>843</v>
+        <v>37</v>
       </c>
       <c r="B19">
-        <v>254</v>
+        <v>398</v>
       </c>
       <c r="C19">
-        <v>966</v>
+        <v>687</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="H19">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>21.412199999999999</v>
+        <v>52</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K19">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B20">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="C20">
-        <v>230</v>
+        <v>516</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H20">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>18.6313</v>
+        <v>65</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K20">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>911</v>
+        <v>1326</v>
       </c>
       <c r="B21">
-        <v>248</v>
+        <v>698</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>756</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21">
-        <v>22.5928</v>
+        <v>41</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>925</v>
+        <v>304</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>763</v>
+        <v>571</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>4</v>
       </c>
       <c r="G22">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H22">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>9.99</v>
+        <v>96</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K22">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>944</v>
+        <v>1013</v>
       </c>
       <c r="B23">
-        <v>955</v>
+        <v>587</v>
       </c>
       <c r="C23">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H23">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>90.152000000000001</v>
+        <v>7</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K23">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>979</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>12.5312</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K24">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>988</v>
+        <v>315</v>
       </c>
       <c r="B25">
-        <v>848</v>
+        <v>575</v>
       </c>
       <c r="C25">
-        <v>820</v>
+        <v>490</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>5</v>
       </c>
       <c r="G25">
+        <v>48</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>26</v>
+      </c>
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>215</v>
+      </c>
+      <c r="B26">
+        <v>101</v>
+      </c>
+      <c r="C26">
+        <v>195</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>48</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>504</v>
+      </c>
+      <c r="B27">
+        <v>738</v>
+      </c>
+      <c r="C27">
+        <v>119</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>41</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>59</v>
+      </c>
+      <c r="J27">
+        <v>26</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>413</v>
+      </c>
+      <c r="B28">
+        <v>1075</v>
+      </c>
+      <c r="C28">
+        <v>205</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>57</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>62</v>
+      </c>
+      <c r="J28">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>71</v>
+      </c>
+      <c r="C29">
+        <v>795</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>43</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>79</v>
+      </c>
+      <c r="J29">
+        <v>28</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>668</v>
+      </c>
+      <c r="B30">
+        <v>356</v>
+      </c>
+      <c r="C30">
+        <v>782</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>42</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
+      </c>
+      <c r="J30">
+        <v>29</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>645</v>
+      </c>
+      <c r="B31">
+        <v>109</v>
+      </c>
+      <c r="C31">
+        <v>196</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>54</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>16</v>
+      </c>
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>268</v>
+      </c>
+      <c r="B32">
+        <v>962</v>
+      </c>
+      <c r="C32">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>31</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>373</v>
+      </c>
+      <c r="B33">
+        <v>205</v>
+      </c>
+      <c r="C33">
+        <v>670</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>66</v>
+      </c>
+      <c r="J33">
+        <v>32</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>346</v>
+      </c>
+      <c r="B34">
+        <v>769</v>
+      </c>
+      <c r="C34">
+        <v>784</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>46</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>60</v>
+      </c>
+      <c r="J34">
+        <v>33</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>706</v>
+      </c>
+      <c r="B35">
+        <v>57</v>
+      </c>
+      <c r="C35">
+        <v>101</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>49</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
         <v>55</v>
       </c>
-      <c r="H25">
-        <v>64</v>
-      </c>
-      <c r="I25">
-        <v>83.782399999999996</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>24</v>
+      <c r="J35">
+        <v>34</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>1366</v>
+      </c>
+      <c r="B36">
+        <v>765</v>
+      </c>
+      <c r="C36">
+        <v>561</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>55</v>
+      </c>
+      <c r="J36">
+        <v>35</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>168</v>
+      </c>
+      <c r="B37">
+        <v>204</v>
+      </c>
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>58</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>55</v>
+      </c>
+      <c r="J37">
+        <v>36</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>1465</v>
+      </c>
+      <c r="B38">
+        <v>977</v>
+      </c>
+      <c r="C38">
+        <v>671</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>46</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <v>37</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>629</v>
+      </c>
+      <c r="B39">
+        <v>797</v>
+      </c>
+      <c r="C39">
+        <v>411</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>48</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>12</v>
+      </c>
+      <c r="J39">
+        <v>38</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>1390</v>
+      </c>
+      <c r="B40">
+        <v>814</v>
+      </c>
+      <c r="C40">
+        <v>695</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>48</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>58</v>
+      </c>
+      <c r="J40">
+        <v>39</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>940</v>
+      </c>
+      <c r="B41">
+        <v>676</v>
+      </c>
+      <c r="C41">
+        <v>730</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>40</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>1111</v>
+      </c>
+      <c r="B42">
+        <v>773</v>
+      </c>
+      <c r="C42">
+        <v>245</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>41</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>41</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>167</v>
+      </c>
+      <c r="B43">
+        <v>538</v>
+      </c>
+      <c r="C43">
+        <v>630</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>49</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>81</v>
+      </c>
+      <c r="J43">
+        <v>42</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>1589</v>
+      </c>
+      <c r="B44">
+        <v>275</v>
+      </c>
+      <c r="C44">
+        <v>422</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>56</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>51</v>
+      </c>
+      <c r="J44">
+        <v>43</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>1487</v>
+      </c>
+      <c r="B45">
+        <v>401</v>
+      </c>
+      <c r="C45">
+        <v>315</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>47</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>60</v>
+      </c>
+      <c r="J45">
+        <v>44</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>1482</v>
+      </c>
+      <c r="B46">
+        <v>468</v>
+      </c>
+      <c r="C46">
+        <v>308</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>48</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>36</v>
+      </c>
+      <c r="J46">
+        <v>45</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>512</v>
+      </c>
+      <c r="B47">
+        <v>1002</v>
+      </c>
+      <c r="C47">
+        <v>462</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>46</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>60</v>
+      </c>
+      <c r="J47">
+        <v>46</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>389</v>
+      </c>
+      <c r="B48">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>613</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>42</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>20</v>
+      </c>
+      <c r="J48">
+        <v>47</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>640</v>
+      </c>
+      <c r="B49">
+        <v>614</v>
+      </c>
+      <c r="C49">
+        <v>482</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>42</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>48</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>807</v>
+      </c>
+      <c r="B50">
+        <v>323</v>
+      </c>
+      <c r="C50">
+        <v>28</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>43</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>85</v>
+      </c>
+      <c r="J50">
+        <v>49</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>1550</v>
+      </c>
+      <c r="B51">
+        <v>1161</v>
+      </c>
+      <c r="C51">
+        <v>160</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>55</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>36</v>
+      </c>
+      <c r="J51">
+        <v>50</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
